--- a/output/Media_analise/media/Compositions/@saidaouter_carbon.xlsx
+++ b/output/Media_analise/media/Compositions/@saidaouter_carbon.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\V. cholerae metabolism\output\Media_analise\media\Compositions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb5363e8f87d921c/Área de Trabalho/faculdade/@Lab/Bisch/V.cholerae1/V. cholerae metabolism/output/Media_analise/media/Compositions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01A1D6A-E28C-4BED-8082-855F956FCF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{D01A1D6A-E28C-4BED-8082-855F956FCF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00DE563D-AE11-4168-A5EF-81240ED7F144}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3048" yWindow="2256" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
-    <sheet name="Inner" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
+    <sheet name="Inner" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Inner Union" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="63">
   <si>
     <t>compounds</t>
   </si>
@@ -615,16 +616,623 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3C4D41-6DFC-42E2-98E2-5EB7C73B983C}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{CD3C4D41-6DFC-42E2-98E2-5EB7C73B983C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K8">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB5B9F8-457D-4EAF-9CA5-52EE03F9FD92}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +1261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -682,7 +1290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -711,7 +1319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -740,7 +1348,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -766,7 +1374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -795,7 +1403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -812,7 +1420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -841,7 +1449,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -870,7 +1478,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -881,7 +1489,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -910,7 +1518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -939,7 +1547,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -968,7 +1576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -997,7 +1605,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1026,7 +1634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1037,7 +1645,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1048,7 +1656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1685,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1088,7 +1696,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1117,7 +1725,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1128,7 +1736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1157,7 +1765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1186,7 +1794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1215,7 +1823,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1244,7 +1852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1255,7 +1863,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1266,7 +1874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1284,1013 +1892,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3C4D41-6DFC-42E2-98E2-5EB7C73B983C}">
-  <dimension ref="A1:AB8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AB8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" t="s">
-        <v>55</v>
-      </c>
-      <c r="W5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" t="s">
-        <v>51</v>
-      </c>
-      <c r="U6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" t="s">
-        <v>55</v>
-      </c>
-      <c r="W6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U7" t="s">
-        <v>54</v>
-      </c>
-      <c r="V7" t="s">
-        <v>55</v>
-      </c>
-      <c r="W7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U8" t="s">
-        <v>54</v>
-      </c>
-      <c r="V8" t="s">
-        <v>55</v>
-      </c>
-      <c r="W8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB5B9F8-457D-4EAF-9CA5-52EE03F9FD92}">
-  <dimension ref="A1:R8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>55</v>
-      </c>
-      <c r="R7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -2302,9 +1903,9 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2318,7 +1919,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2326,7 +1927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2334,7 +1935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2342,7 +1943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2350,7 +1951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2358,7 +1959,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2366,7 +1967,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2374,7 +1975,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2382,7 +1983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2390,7 +1991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2398,7 +1999,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2406,7 +2007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2414,7 +2015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2422,7 +2023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2430,7 +2031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2438,7 +2039,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2446,7 +2047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>

--- a/output/Media_analise/media/Compositions/@saidaouter_carbon.xlsx
+++ b/output/Media_analise/media/Compositions/@saidaouter_carbon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb5363e8f87d921c/Área de Trabalho/faculdade/@Lab/Bisch/V.cholerae1/V. cholerae metabolism/output/Media_analise/media/Compositions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{D01A1D6A-E28C-4BED-8082-855F956FCF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00DE563D-AE11-4168-A5EF-81240ED7F144}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{D01A1D6A-E28C-4BED-8082-855F956FCF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25DBFCD4-04C8-48B5-89F6-8F6E3E3E7AFA}"/>
   <bookViews>
-    <workbookView xWindow="3048" yWindow="2256" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="64">
   <si>
     <t>compounds</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Cpd</t>
+  </si>
+  <si>
+    <t>kb|media.5189</t>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3C4D41-6DFC-42E2-98E2-5EB7C73B983C}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H8"/>
     </sheetView>
   </sheetViews>
@@ -761,15 +764,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB5B9F8-457D-4EAF-9CA5-52EE03F9FD92}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,7 +828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -881,7 +884,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -937,7 +940,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -993,7 +996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1214,6 +1217,62 @@
         <v>55</v>
       </c>
       <c r="R8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1224,15 +1283,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,8 +1319,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1289,8 +1351,11 @@
       <c r="I2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1318,8 +1383,11 @@
       <c r="I3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1347,8 +1415,11 @@
       <c r="I4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1374,7 +1445,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1402,8 +1473,11 @@
       <c r="I6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1419,8 +1493,11 @@
       <c r="I7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1448,8 +1525,11 @@
       <c r="I8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1477,8 +1557,11 @@
       <c r="I9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1489,7 +1572,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1517,8 +1600,11 @@
       <c r="I11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1546,8 +1632,11 @@
       <c r="I12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1575,8 +1664,11 @@
       <c r="I13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1604,8 +1696,11 @@
       <c r="I14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1633,8 +1728,11 @@
       <c r="I15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1645,7 +1743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1656,7 +1754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1684,8 +1782,11 @@
       <c r="I18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1696,7 +1797,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1724,8 +1825,11 @@
       <c r="I20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1735,8 +1839,11 @@
       <c r="C21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1764,8 +1871,11 @@
       <c r="I22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1793,8 +1903,11 @@
       <c r="I23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1822,8 +1935,11 @@
       <c r="I24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1851,8 +1967,11 @@
       <c r="I25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1862,8 +1981,11 @@
       <c r="C26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1874,7 +1996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
